--- a/sources/oyez/cases/conlaw.xlsx
+++ b/sources/oyez/cases/conlaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Sites/loners/lonedissent/sources/oyez/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC430F5C-6096-7E4A-ACA3-B2796E8AF530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64A426-73EE-AC4D-A600-51417612BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="2660" windowWidth="24700" windowHeight="17440" xr2:uid="{D03C7472-E9A2-7344-8FBB-D623DD0FEEEE}"/>
+    <workbookView xWindow="1680" yWindow="840" windowWidth="26360" windowHeight="17440" xr2:uid="{D03C7472-E9A2-7344-8FBB-D623DD0FEEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="3446">
   <si>
     <t>Title</t>
   </si>
@@ -10394,6 +10394,30 @@
   </si>
   <si>
     <t>8161</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>13A,14A</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Sony Corp. of America v. Universal City Studios, Inc.</t>
+  </si>
+  <si>
+    <t>464 U.S. 417</t>
   </si>
 </sst>
 </file>
@@ -10772,18 +10796,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3355DE-4C38-744F-AA8C-93F113938780}">
-  <dimension ref="A1:AG951"/>
+  <dimension ref="A1:AG952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A940" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F952" sqref="F952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="13.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
@@ -11015,6 +11039,9 @@
       <c r="B3" s="2">
         <v>21</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>3439</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
@@ -13497,6 +13524,9 @@
       <c r="B29" s="2">
         <v>17</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>3438</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>146</v>
       </c>
@@ -13593,7 +13623,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1266</v>
+        <v>3440</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>225</v>
@@ -36185,7 +36215,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1266</v>
+        <v>3441</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>1267</v>
@@ -37232,6 +37262,9 @@
       <c r="B279" s="2">
         <v>4</v>
       </c>
+      <c r="C279" s="2" t="s">
+        <v>3442</v>
+      </c>
       <c r="D279" s="3" t="s">
         <v>1347</v>
       </c>
@@ -37520,6 +37553,9 @@
       <c r="B282" s="2">
         <v>4</v>
       </c>
+      <c r="C282" s="2" t="s">
+        <v>3443</v>
+      </c>
       <c r="D282" s="3" t="s">
         <v>1360</v>
       </c>
@@ -42938,6 +42974,9 @@
       <c r="B339" s="2">
         <v>3</v>
       </c>
+      <c r="C339" s="2" t="s">
+        <v>1266</v>
+      </c>
       <c r="D339" s="3" t="s">
         <v>1474</v>
       </c>
@@ -43701,6 +43740,9 @@
       <c r="B347" s="2">
         <v>3</v>
       </c>
+      <c r="C347" s="2" t="s">
+        <v>3442</v>
+      </c>
       <c r="D347" s="3" t="s">
         <v>1649</v>
       </c>
@@ -53759,6 +53801,9 @@
       <c r="B453" s="2">
         <v>2</v>
       </c>
+      <c r="C453" s="2" t="s">
+        <v>3442</v>
+      </c>
       <c r="D453" s="3" t="s">
         <v>2237</v>
       </c>
@@ -100909,6 +100954,20 @@
       </c>
       <c r="E951" s="3" t="s">
         <v>3424</v>
+      </c>
+    </row>
+    <row r="952" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B952" s="2">
+        <v>0</v>
+      </c>
+      <c r="C952" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>3445</v>
       </c>
     </row>
   </sheetData>

--- a/sources/oyez/cases/conlaw.xlsx
+++ b/sources/oyez/cases/conlaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Sites/loners/lonedissent/sources/oyez/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64A426-73EE-AC4D-A600-51417612BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB121286-4539-0141-975B-69A0D2B72BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="840" windowWidth="26360" windowHeight="17440" xr2:uid="{D03C7472-E9A2-7344-8FBB-D623DD0FEEEE}"/>
+    <workbookView xWindow="5660" yWindow="2320" windowWidth="26360" windowHeight="17440" xr2:uid="{D03C7472-E9A2-7344-8FBB-D623DD0FEEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="3446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6656" uniqueCount="3446">
   <si>
     <t>Title</t>
   </si>
@@ -10799,8 +10799,8 @@
   <dimension ref="A1:AG952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A940" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F952" sqref="F952"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20195,6 +20195,9 @@
       <c r="B99" s="2">
         <v>11</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>1266</v>
+      </c>
       <c r="D99" s="3" t="s">
         <v>506</v>
       </c>
